--- a/REGULAR/RE-ENCODE/OLEGARIO TEOFISTA.xlsx
+++ b/REGULAR/RE-ENCODE/OLEGARIO TEOFISTA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6998680-1DE8-4EE6-8452-7049D1A5A854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="101">
   <si>
     <t>PERIOD</t>
   </si>
@@ -160,9 +159,6 @@
   </si>
   <si>
     <t>SL EARNED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLEGARIO TEOFISTA </t>
   </si>
   <si>
     <t>02/29/2000</t>
@@ -358,11 +354,14 @@
   <si>
     <t>2/10,13/2023</t>
   </si>
+  <si>
+    <t xml:space="preserve">OLEGARIO, TEOFISTA BAYOT </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1003,7 +1002,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1049,25 +1047,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1374,39 +1372,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A84" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A78" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B91" sqref="B91"/>
+      <selection pane="bottomLeft" activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
@@ -1414,7 +1412,7 @@
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="56"/>
       <c r="H2" s="28" t="s">
@@ -1424,19 +1422,19 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
@@ -1446,19 +1444,19 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
@@ -1468,7 +1466,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1476,7 +1474,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1489,7 +1487,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1506,7 +1504,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1541,7 +1539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1550,7 +1548,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>168.524</v>
+        <v>167.774</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1560,14 +1558,14 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>323.37</v>
+        <v>324.62</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -1587,7 +1585,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1607,12 +1605,12 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="39"/>
@@ -1626,13 +1624,13 @@
       <c r="I12" s="9"/>
       <c r="J12" s="11"/>
       <c r="K12" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="13">
         <v>1.25</v>
@@ -1650,10 +1648,10 @@
       <c r="I13" s="9"/>
       <c r="J13" s="11"/>
       <c r="K13" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43160</v>
       </c>
@@ -1673,12 +1671,12 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>43191</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="42">
         <v>1.25</v>
@@ -1696,15 +1694,15 @@
       <c r="I15" s="9"/>
       <c r="J15" s="12"/>
       <c r="K15" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43221</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="13">
         <v>1.25</v>
@@ -1722,15 +1720,15 @@
       <c r="I16" s="9"/>
       <c r="J16" s="11"/>
       <c r="K16" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43252</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="13">
         <v>1.25</v>
@@ -1749,10 +1747,10 @@
         <v>43106</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="39">
@@ -1768,15 +1766,15 @@
       <c r="I18" s="9"/>
       <c r="J18" s="11"/>
       <c r="K18" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43282</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="13">
         <v>1.25</v>
@@ -1794,15 +1792,15 @@
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
       <c r="K19" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43313</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="13">
         <v>1.25</v>
@@ -1820,15 +1818,15 @@
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
       <c r="K20" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43344</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="13">
         <v>1.25</v>
@@ -1846,15 +1844,15 @@
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
       <c r="K21" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43374</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="13">
         <v>1.25</v>
@@ -1872,10 +1870,10 @@
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
       <c r="K22" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43405</v>
       </c>
@@ -1895,7 +1893,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43435</v>
       </c>
@@ -1915,9 +1913,9 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -1933,7 +1931,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43466</v>
       </c>
@@ -1953,12 +1951,12 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43497</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="13">
         <v>1.25</v>
@@ -1974,15 +1972,15 @@
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
       <c r="K27" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43525</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" s="13">
         <v>1.25</v>
@@ -2000,13 +1998,13 @@
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
       <c r="K28" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="39"/>
@@ -2022,13 +2020,13 @@
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
       <c r="K29" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="39"/>
@@ -2044,10 +2042,10 @@
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
       <c r="K30" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43556</v>
       </c>
@@ -2067,12 +2065,12 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43586</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="13">
         <v>1.25</v>
@@ -2090,15 +2088,15 @@
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
       <c r="K32" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43617</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="13">
         <v>1.25</v>
@@ -2119,12 +2117,12 @@
         <v>43561</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43647</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C34" s="13">
         <v>1.25</v>
@@ -2142,10 +2140,10 @@
       <c r="I34" s="9"/>
       <c r="J34" s="11"/>
       <c r="K34" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43678</v>
       </c>
@@ -2165,12 +2163,12 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43709</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36" s="13">
         <v>1.25</v>
@@ -2186,13 +2184,13 @@
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
       <c r="K36" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="39">
@@ -2208,13 +2206,13 @@
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
       <c r="K37" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="39">
@@ -2230,10 +2228,10 @@
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
       <c r="K38" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43739</v>
       </c>
@@ -2253,7 +2251,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43770</v>
       </c>
@@ -2273,12 +2271,12 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43800</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" s="13">
         <v>1.25</v>
@@ -2296,12 +2294,12 @@
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
       <c r="K41" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="48" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="48" t="s">
-        <v>81</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -2317,12 +2315,12 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43831</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" s="13">
         <v>1.25</v>
@@ -2338,10 +2336,10 @@
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
       <c r="K43" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43862</v>
       </c>
@@ -2361,7 +2359,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>43891</v>
       </c>
@@ -2381,7 +2379,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>43922</v>
       </c>
@@ -2401,7 +2399,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43952</v>
       </c>
@@ -2421,7 +2419,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>43983</v>
       </c>
@@ -2441,12 +2439,12 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44013</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C49" s="13">
         <v>1.25</v>
@@ -2462,13 +2460,13 @@
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
       <c r="K49" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="39"/>
@@ -2484,10 +2482,10 @@
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
       <c r="K50" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44044</v>
       </c>
@@ -2507,7 +2505,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44075</v>
       </c>
@@ -2527,7 +2525,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44105</v>
       </c>
@@ -2547,7 +2545,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44136</v>
       </c>
@@ -2567,12 +2565,12 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44166</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C55" s="13">
         <v>1.25</v>
@@ -2591,9 +2589,9 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -2609,7 +2607,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44197</v>
       </c>
@@ -2629,7 +2627,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44228</v>
       </c>
@@ -2649,7 +2647,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44256</v>
       </c>
@@ -2669,7 +2667,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44287</v>
       </c>
@@ -2689,7 +2687,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44317</v>
       </c>
@@ -2709,7 +2707,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44348</v>
       </c>
@@ -2729,12 +2727,12 @@
       <c r="J62" s="11"/>
       <c r="K62" s="49"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44378</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C63" s="13">
         <v>1.25</v>
@@ -2752,10 +2750,10 @@
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
       <c r="K63" s="49" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44409</v>
       </c>
@@ -2775,12 +2773,12 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44440</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C65" s="13">
         <v>1.25</v>
@@ -2796,10 +2794,10 @@
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
       <c r="K65" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44470</v>
       </c>
@@ -2819,12 +2817,12 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44501</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="39"/>
@@ -2841,10 +2839,10 @@
         <v>44450</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="39">
@@ -2860,13 +2858,13 @@
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
       <c r="K68" s="20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C69" s="13">
         <v>1.25</v>
@@ -2884,10 +2882,10 @@
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
       <c r="K69" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44531</v>
       </c>
@@ -2907,9 +2905,9 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -2925,7 +2923,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44562</v>
       </c>
@@ -2945,7 +2943,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44593</v>
       </c>
@@ -2965,12 +2963,12 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44621</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C74" s="13">
         <v>1.25</v>
@@ -2989,7 +2987,7 @@
         <v>44868</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44652</v>
       </c>
@@ -3009,7 +3007,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44682</v>
       </c>
@@ -3029,12 +3027,12 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44713</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C77" s="13">
         <v>1.25</v>
@@ -3052,15 +3050,15 @@
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
       <c r="K77" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44743</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C78" s="13">
         <v>1.25</v>
@@ -3078,10 +3076,10 @@
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
       <c r="K78" s="20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44774</v>
       </c>
@@ -3101,12 +3099,12 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44805</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C80" s="13">
         <v>1.25</v>
@@ -3125,7 +3123,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44835</v>
       </c>
@@ -3145,12 +3143,12 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44866</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="39">
@@ -3169,10 +3167,10 @@
         <v>44887</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="39">
@@ -3191,10 +3189,10 @@
         <v>44876</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="39">
@@ -3210,10 +3208,10 @@
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
       <c r="K84" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>44896</v>
       </c>
@@ -3233,9 +3231,9 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -3251,13 +3249,13 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <f>EDATE(A85,1)</f>
         <v>44927</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C87" s="13">
         <v>1.25</v>
@@ -3273,12 +3271,12 @@
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
       <c r="K87" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <f t="shared" ref="A88:A121" si="0">EDATE(A87,1)</f>
+        <f t="shared" ref="A88:A122" si="0">EDATE(A87,1)</f>
         <v>44958</v>
       </c>
       <c r="B88" s="20"/>
@@ -3297,7 +3295,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f t="shared" si="0"/>
         <v>44986</v>
@@ -3318,21 +3316,23 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f t="shared" si="0"/>
         <v>45017</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C90" s="13"/>
+        <v>75</v>
+      </c>
+      <c r="C90" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
@@ -3341,14 +3341,15 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="40">
-        <f t="shared" si="0"/>
-        <v>45047</v>
-      </c>
-      <c r="B91" s="20"/>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="40"/>
+      <c r="B91" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="C91" s="13"/>
-      <c r="D91" s="39"/>
+      <c r="D91" s="39">
+        <v>1</v>
+      </c>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
       <c r="G91" s="13" t="str">
@@ -3358,16 +3359,22 @@
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K91" s="49">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <f t="shared" si="0"/>
-        <v>45078</v>
-      </c>
-      <c r="B92" s="20"/>
+        <f>EDATE(A90,1)</f>
+        <v>45047</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="C92" s="13"/>
-      <c r="D92" s="39"/>
+      <c r="D92" s="39">
+        <v>1</v>
+      </c>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
       <c r="G92" s="13" t="str">
@@ -3377,12 +3384,14 @@
       <c r="H92" s="39"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="49">
+        <v>45061</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f t="shared" si="0"/>
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3398,10 +3407,10 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f t="shared" si="0"/>
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3417,10 +3426,10 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f t="shared" si="0"/>
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3436,10 +3445,10 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f t="shared" si="0"/>
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3455,10 +3464,10 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" si="0"/>
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3474,10 +3483,10 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f t="shared" si="0"/>
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3493,10 +3502,10 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f t="shared" si="0"/>
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3512,10 +3521,10 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f t="shared" si="0"/>
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3531,10 +3540,10 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <f t="shared" si="0"/>
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3550,10 +3559,10 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <f t="shared" si="0"/>
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3569,10 +3578,10 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f t="shared" si="0"/>
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3588,10 +3597,10 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f t="shared" si="0"/>
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3607,10 +3616,10 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f t="shared" si="0"/>
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3626,10 +3635,10 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f t="shared" si="0"/>
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3645,10 +3654,10 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f t="shared" si="0"/>
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3664,10 +3673,10 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <f t="shared" si="0"/>
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3683,10 +3692,10 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <f t="shared" si="0"/>
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3702,10 +3711,10 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f t="shared" si="0"/>
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3721,10 +3730,10 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f t="shared" si="0"/>
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3740,10 +3749,10 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f t="shared" si="0"/>
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3759,10 +3768,10 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f t="shared" si="0"/>
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3778,10 +3787,10 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <f t="shared" si="0"/>
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3797,10 +3806,10 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f t="shared" si="0"/>
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3816,10 +3825,10 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f t="shared" si="0"/>
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3835,10 +3844,10 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f t="shared" si="0"/>
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3854,10 +3863,10 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <f t="shared" si="0"/>
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3873,10 +3882,10 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f t="shared" si="0"/>
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3892,10 +3901,10 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" si="0"/>
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3911,10 +3920,10 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f t="shared" si="0"/>
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3930,8 +3939,11 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="40"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="40">
+        <f t="shared" si="0"/>
+        <v>45962</v>
+      </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
@@ -3946,7 +3958,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3962,7 +3974,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3978,7 +3990,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3994,7 +4006,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -4010,7 +4022,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -4026,7 +4038,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -4042,7 +4054,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -4058,21 +4070,37 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="41"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="43"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="40"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="39"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="43"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="39"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="15"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="41"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="43"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="43"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4089,10 +4117,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4115,28 +4143,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -4149,7 +4177,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4178,7 +4206,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>127.024</v>
       </c>
@@ -4202,17 +4230,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4233,7 +4261,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4260,7 +4288,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4286,7 +4314,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4312,7 +4340,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4338,7 +4366,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4364,7 +4392,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4390,7 +4418,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4416,7 +4444,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4442,7 +4470,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4462,7 +4490,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4482,7 +4510,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4502,7 +4530,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4523,7 +4551,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4544,7 +4572,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4565,7 +4593,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4586,7 +4614,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4607,7 +4635,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4628,7 +4656,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4649,7 +4677,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4670,7 +4698,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4691,7 +4719,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4712,7 +4740,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4733,7 +4761,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4754,7 +4782,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4775,7 +4803,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4796,7 +4824,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4817,7 +4845,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4838,7 +4866,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4859,7 +4887,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4880,7 +4908,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4901,7 +4929,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4922,7 +4950,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4931,7 +4959,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4940,7 +4968,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4949,7 +4977,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4958,7 +4986,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4967,7 +4995,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4976,7 +5004,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4985,7 +5013,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4994,7 +5022,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -5003,7 +5031,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -5012,7 +5040,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -5021,7 +5049,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -5030,7 +5058,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -5039,7 +5067,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -5048,7 +5076,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -5057,7 +5085,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -5066,7 +5094,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -5075,7 +5103,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -5084,7 +5112,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -5093,7 +5121,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -5102,7 +5130,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -5111,7 +5139,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5120,7 +5148,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5129,7 +5157,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5138,7 +5166,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5147,7 +5175,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5156,7 +5184,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5165,7 +5193,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5174,7 +5202,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5183,7 +5211,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
